--- a/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb166/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8031B002-2AB0-BF40-BDDA-4132B4CA6F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D0D58-8539-314A-85F5-DE2A5AAF0D4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19340" yWindow="960" windowWidth="16400" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19340" yWindow="480" windowWidth="16400" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,12 +540,12 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1536,13 +1536,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2">
         <v>98871206</v>
